--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B82443-3A34-3E4B-BB2D-E434918166F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E7F0A-E275-174F-8F07-1DFD737B073D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>libraryDate</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B5 E2:E5"/>
+      <selection activeCell="D6" sqref="D6:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,7 +486,7 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -503,7 +506,7 @@
         <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -523,7 +526,7 @@
         <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -543,7 +546,7 @@
         <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>

--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E7F0A-E275-174F-8F07-1DFD737B073D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19F792-AB94-8643-BFF0-2FC368FB3646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18340" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -49,16 +49,16 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_159_samples/s_6_sequence_30C.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_159_samples/s_6_sequence_37C_CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_159_samples/s_6_sequence_CHX_30C.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_159_samples/s_6_sequence_CHX_37C_CO2.fastq.gz</t>
+    <t xml:space="preserve">s_6_sequence_30C.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_37C_CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_CHX_30C.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_CHX_37C_CO2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -178,13 +178,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>

--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_6_sequence_30C.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[128]</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,7 +199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -218,11 +221,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -241,11 +244,11 @@
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -264,11 +267,11 @@
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -287,8 +290,8 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_159.xlsx
+++ b/fastqFiles/fastq_159.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">[128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_37C_CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_CHX_30C.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_sequence_CHX_37C_CO2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -162,12 +171,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,6 +252,9 @@
       <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
@@ -264,6 +278,9 @@
       <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
@@ -286,6 +303,9 @@
       </c>
       <c r="E5" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
